--- a/cellplans/nextel.xlsx
+++ b/cellplans/nextel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540"/>
+    <workbookView xWindow="2280" yWindow="1100" windowWidth="25600" windowHeight="14520"/>
   </bookViews>
   <sheets>
     <sheet name="Postpago" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="171">
   <si>
     <t>Compañía</t>
   </si>
@@ -41,24 +41,12 @@
     <t>Modalidad de Cobro</t>
   </si>
   <si>
-    <t>Minutos incluidos indistintos Locales</t>
-  </si>
-  <si>
     <t>Minutos Incluidos a la Misma Compañía</t>
   </si>
   <si>
-    <t>Minutos Incluidos a Otras Compañías</t>
-  </si>
-  <si>
-    <t>Segundos incluidos indistintos Locales</t>
-  </si>
-  <si>
     <t>Segundos Incluidos a la Misma Compañía</t>
   </si>
   <si>
-    <t>Segundos Incluidos a Otras Compañías</t>
-  </si>
-  <si>
     <t>Números para llamar Gratis a la Misma Compañía</t>
   </si>
   <si>
@@ -74,31 +62,7 @@
     <t>Radio o Push-to-Talk</t>
   </si>
   <si>
-    <t>Costo por Minuto indistinto adicional (Nacional)</t>
-  </si>
-  <si>
-    <t>Costo por Minuto indistinto adicional (Local)</t>
-  </si>
-  <si>
-    <t>Costo por Minuto Adicional Misma Compañía</t>
-  </si>
-  <si>
-    <t>Costo por Minuto Adicional Otra Compañía</t>
-  </si>
-  <si>
     <t>Costo por Minuto Adicional a Números Fijos</t>
-  </si>
-  <si>
-    <t>Costo por Segundo indistinto adicional (Nacional)</t>
-  </si>
-  <si>
-    <t>Costo por Segundo indistinto adicional (Local)</t>
-  </si>
-  <si>
-    <t>Costo por Segundo Adicional Misma Compañía</t>
-  </si>
-  <si>
-    <t>Costo por Segundo Adicional Otra Compañía</t>
   </si>
   <si>
     <t>Costo por Segundo Adicional a Números Fijos</t>
@@ -312,18 +276,6 @@
     <t>Por ejemplo, uso ilimitado a ciertos servicios como "redes sociales" con cierta recarga mínima, Roaming Nacional/Internacional incluido, servicio Blackberry, etc</t>
   </si>
   <si>
-    <t>Bolsa de saldo/crédito/dinero para llamar a cualquier destino nacional Nacional</t>
-  </si>
-  <si>
-    <t>Bolsa de saldo/crédito/dinero para llamar a número local</t>
-  </si>
-  <si>
-    <t>Bolsa de saldo/crédito/dinero para llamar a números misma Compañía</t>
-  </si>
-  <si>
-    <t>Bolsa de saldo/crédito/dinero para llamar a números Otras Compañías</t>
-  </si>
-  <si>
     <t>Rango/Nivel 1 de Recarga Mensual (o Tarifa Base)</t>
   </si>
   <si>
@@ -351,15 +303,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Minuto</t>
-  </si>
-  <si>
-    <t>Minutos incluidos indistintos todo Destino</t>
-  </si>
-  <si>
-    <t>Segundos incluidos indistintos todo Destino</t>
-  </si>
-  <si>
     <t>Prepago</t>
   </si>
   <si>
@@ -369,26 +312,12 @@
     <t>3 GB</t>
   </si>
   <si>
-    <t>Plan Evolution Control Frontera</t>
-  </si>
-  <si>
-    <t>Plan Evolution Control Top 100</t>
-  </si>
-  <si>
-    <t>Plan Evolution Control Flip 150</t>
-  </si>
-  <si>
     <t>Si</t>
   </si>
   <si>
     <t>5 MB</t>
   </si>
   <si>
-    <t xml:space="preserve"> Radio Evolution - Ilimitado para hablar a México y a EU.     Roaming Gratis de Radio en EU.
-MB de Datos incluidos para consumo Nacional.
-Mantén el control de tu factura evitando los cargos adicionales, al terminarte tu saldo puedes hacer recargas desde $30.</t>
-  </si>
-  <si>
     <t>Incluye 3 números frecuentes</t>
   </si>
   <si>
@@ -398,21 +327,7 @@
     <t>100 MB</t>
   </si>
   <si>
-    <t xml:space="preserve">Radio Evolution ahora con Radioconferencia. Telefonía con Tarifa Única - Llama a cualquier número por el mismo precio. 
-› Nextel Now - Para navegar en Internet de Banda Ancha.
-› Mensajes de Texto o Multimedia incluidos.
-› Números Frecuentes - Envía mensajes y llama gratis por tiempo ilimitado. 
-› Modalidad de Numeración - Elige la numeración de tu Nextel, ya sea Celular (044) o Local (sin 044).
-</t>
-  </si>
-  <si>
     <t>Nextel</t>
-  </si>
-  <si>
-    <t>Plan Control Top Prip</t>
-  </si>
-  <si>
-    <t>Plan Control Macro Prip</t>
   </si>
   <si>
     <t>Incluye 10 números frecuentes</t>
@@ -425,21 +340,6 @@
 › Números Frecuentes - Envía mensajes y llama gratis por tiempo ilimitado. </t>
   </si>
   <si>
-    <t>Plan postpago Evolution Flip 150</t>
-  </si>
-  <si>
-    <t>Plan postpago Evolution Top 100</t>
-  </si>
-  <si>
-    <t>Plan postpago Evolution Yiga</t>
-  </si>
-  <si>
-    <t>Plan Prip Evolution Top Prip</t>
-  </si>
-  <si>
-    <t>Plan Prip Evolution Macro Prip</t>
-  </si>
-  <si>
     <t>Denominacion</t>
   </si>
   <si>
@@ -504,285 +404,198 @@
     <t>Ilimitado</t>
   </si>
   <si>
-    <t>Segundo</t>
-  </si>
-  <si>
     <t>Saldo Total recibido</t>
   </si>
   <si>
-    <t>Plan Postpago Evolution Grand 400</t>
-  </si>
-  <si>
-    <t>Plan Postpago Evolution Macro 800</t>
-  </si>
-  <si>
-    <t>Plan Postpago Evolution Supremo 4,000</t>
-  </si>
-  <si>
-    <t>Plan Postpago Evolution Macro X Segundo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plan Postpago Evolution Blackberry® Single </t>
-  </si>
-  <si>
-    <t>Plan Evolution Control Blackberry® Single</t>
-  </si>
-  <si>
-    <t>Plan Evolution Control Grand 400</t>
-  </si>
-  <si>
-    <t>Plan Evolution Control Macro 800</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FELICIDADES PAPA EVOLUTION.-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Por $0 pesos obtén de 1 a 2 Huawei Lunar y/o Huawei Stella, y opcionalmente la cantidad que quieras de los equipos Huawei Clip, Huawei Polaris y/o Huawei Unnio, a un plazo forzoso de 18 meses.Vigencia: Del 1 al 30 de Junio del 2013
-Restricciones:
-› Plazo forzoso: 18 Meses.
-› Canal: Tradicional y Full Process
-› Promoción válida para clientes: Nuevos, adiciones y existentes. › 
-› Para esta promoción no aplica columnas.
-› No aplica reducción de plazo forzoso como negociación especial.
+    <t>Ilimitados</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Control Flip 150</t>
+  </si>
+  <si>
+    <t>Control Top 100</t>
+  </si>
+  <si>
+    <t>Control Grand 400</t>
+  </si>
+  <si>
+    <t>Control Macro 800</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Control Macro Prip</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Plan Flip 150</t>
+  </si>
+  <si>
+    <t>Plan Top 100</t>
+  </si>
+  <si>
+    <t>Plan Grand 400</t>
+  </si>
+  <si>
+    <t>Plan Macro 800</t>
+  </si>
+  <si>
+    <t>Radio Evolution - Radio Evolution ahora con Radioconferencia.
+Telefonía con Tarifa Única - Llama a cualquier número por el mismo precio. 
+Nextel Now - Para navegar en Internet de Banda Ancha. Mensajes de exto o Multimedia incluidos.
+Números Frecuentes - Envía mensajes y llama gratis por tiempo ilimitado. 
+Modalidad de Numeración - Elige la numeración de tu Nextel, ya sea Celular (044) o Local (sin 044).
+Fix Packs - Contrata servicios adicionales por un cargo mensual recurrente. Single Packs - Compra los paquetes que requieras sólo cuando los necesites.
+Planes Control - Mantén el control de tu factura evitando los cargos adicionales, al terminarte tu saldo puedes hacer recargas desde $30.</t>
+  </si>
+  <si>
+    <t>Contrata este plan antes del 31 de Julio y te regalamos 3GB de Nextel Now + dos meses adicionales de renta gratis al concluir el plazo mínimo contratado.</t>
+  </si>
+  <si>
+    <t>Radio Evolution - Radio Evolution ahora con Radioconferencia.
+Telefonía con Tarifa Única - Llama a cualquier número por el mismo precio. 
+Nextel Now - Para navegar en Internet de Banda Ancha. Mensajes de exto o Multimedia incluidos.
+Números Frecuentes - Envía mensajes y llama gratis por tiempo ilimitado. 
+Modalidad de Numeración - Elige la numeración de tu Nextel, ya sea Celular (044) o Local (sin 044).
+Fix Packs - Contrata servicios adicionales por un cargo mensual recurrente. Single Packs - Compra los paquetes que requieras sólo cuando los necesites.</t>
+  </si>
+  <si>
+    <t>Plan Supremo 4,000</t>
+  </si>
+  <si>
+    <t>Incluye 10 números frecuentes. Para los 300 mensajes disponibles son 200 para cualquier cia y 100 para nextel.</t>
+  </si>
+  <si>
+    <t>Contrata este plan antes del 31 de Julio y te regalamos 5GB de Nextel Now + dos meses adicionales de renta gratis al concluir el plazo mínimo contratado.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contrata este plan antes del 31 de Julio y te regalamos dos meses adicionales de renta gratis al concluir el plazo mínimo contratado.
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">ACTUALIZATE </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Por $1,199 pesos obtén de 1-2 equipos Motorola Master y opcionalmente la cantidad que quieras del equipo Huawei Clip, Huawei Polaris y/o Huawei Unnio a un plazo forzoso de 18 meses. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ACTUALIZATE MASTER TOUCH</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Por $1,499 pesos (IVA incluido) obtén de 1-2 equipos Motorola Master Touch y opcionalmente la cantidad que quieras del equipo Huawei Clip, Huawei Polaris y/o Huawei Unnio a un plazo forzoso de 18 meses.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">PROMO BASICO EVOLUTION.- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Por $0 pesos podrás adquirir de 1-N equipos Huawei Clip, Huawei Polaris y/o Huawei Unnio, a un plazo forzoso de 18 meses.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Promo BlackBerry® 9360</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a $0, Por sólo $0 pesos obtén un equipo BlackBerry® 9360 a un plazo de 24 meses, asociado a un plan tarifario BlackBerry® Single.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Promo BlackBerry® 9360 a $999</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Por $999 pesos (IVA incluido) obtén un equipo BlackBerry® 9360 a un plazo de 18 meses, asociado a un plan tarifario BlackBerry® Single.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Promo BlackBerry® 9900 a $2,299</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; Por $2,299 pesos (IVA incluido) obtén un equipo BlackBerry® 9900 a un plazo de 24 meses, asociado a un plan tarifario BlackBerry® Single.  </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Promo BlackBerry® 9900 a $4,299</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>; Por $4,299 pesos (IVA incluido) obtén un equipo BlackBerry® 9900 a un plazo de 18 meses, asociado a un plan tarifario BlackBerry® Single. Todos con vigencia Del 1 al 30 de Junio del 2013.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Promoción Motorola Atrix™</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> $0 Evolution
-Por sólo $0 pesos obtén 1 equipo Motorola Atrix. HD a un plazo de 24 meses
-Planes tarifarios que aplica: Plan Macro Prip®
-Equipos que aplica: Motorola Atrix. HD           </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Promoción Motorola Atrix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TM $999.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">; Por sólo $999 pesos obtén 1 equipo Motorola Atrix™ HD a un plazo de 18 meses.       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Promocion Motorola Atrix TM $1,999.00</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  Por sólo $1,999 pesos obtén 1 equipo Motorola Atrix™ HD a un plazo de 24 meses. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Promoción Motorola Atrix TM $2,999</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Por sólo $2,999 pesos obtén 1 equipo Motorola Atrix™ HD a un plazo de 18 meses.
- </t>
-    </r>
+  </si>
+  <si>
+    <t>Control Top Prip</t>
+  </si>
+  <si>
+    <t>Aplicación Prip Es un servicio que permite realizar llamadas de Radio a cualquier usuario Nextel a través de una aplicación.
+Telefonía con Tarifa Única - Llama a cualquier número por el mismo precio. 
+Nextel Now - Para navegar en Internet de Banda Ancha.
+Mensajes de Texto o Multimedia incluidos. Números Frecuentes - Envía mensajes y llama gratis por tiempo ilimitado. Modalidad de Numeración - Elige la numeración de tu Nextel, ya sea Celular (044) o Local (sin 044).
+Fix Packs - Contrata servicios adicionales por un cargo mensual recurrente.
+Single Packs - Compra los paquetes que requieras sólo cuando los necesites.
+Planes Control - Mantén el control de tu factura evitando los cargos adicionales, al terminarte tu saldo puedes hacer recargas desde $30</t>
+  </si>
+  <si>
+    <t>Plan Macro Prip</t>
+  </si>
+  <si>
+    <t>Plan Top Prip</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Control Blackberry® Single </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Telefonía con Tarifa Única - Llama a cualquier número por el mismo precio. Nextel Now - Para navegar en Internet de Banda Ancha.
+Mensajes de Texto o Multimedia incluidos.
+Modalidad de Numeración - Elige la numeración de tu Nextel, ya sea Celular(044) o Local(sin 044).
+Fix Packs - Contrata servicios adicionales por un cargo mensual recurrente.
+Single Packs - Compra los paquetes que requieras sólo cuando los necesites.
+Mantén el control de tu factura evitando los cargos adicionales, al terminarte tu saldo puedes hacer recargas desde $30.</t>
+  </si>
+  <si>
+    <t>Contrata este plan antes del 31 de Julio y te regalamos dos meses adicionales de renta gratis al concluir el plazo mínimo contratado.</t>
+  </si>
+  <si>
+    <t>Plan Control Frontera</t>
+  </si>
+  <si>
+    <t>Radio Evolution - Ilimitado para hablar a México y a EU.
+Roaming Gratis de Radio en EU.
+MB de Datos incluidos para consumo Nacional.
+Mantén el control de tu factura evitando los cargos adicionales, al terminarte tu saldo puedes hacer recargas desde $30.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan Blackberry® Single </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Telefonía con Tarifa Única - Llama a cualquier número por el mismo precio. Nextel Now - Para navegar en Internet de Banda Ancha.
+Mensajes de Texto o Multimedia incluidos.
+Modalidad de Numeración - Elige la numeración de tu Nextel, ya sea Celular(044) o Local(sin 044).
+Fix Packs - Contrata servicios adicionales por un cargo mensual recurrente.
+Single Packs - Compra los paquetes que requieras sólo cuando los necesites.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plan Yiga </t>
+  </si>
+  <si>
+    <t>Macro X Segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 MB </t>
+  </si>
+  <si>
+    <t>Plan Frontera Evolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Radio Evolution - Ilimitado para hablar a México y a EU.
+Roaming Gratis de Radio en EU.
+MB de Datos incluidos para consumo Nacional.
+</t>
+  </si>
+  <si>
+    <t>Por Minuto</t>
+  </si>
+  <si>
+    <t>Por segundo</t>
+  </si>
+  <si>
+    <t>Costo por Minuto Adicional a Números de la Misma Compañía</t>
+  </si>
+  <si>
+    <t>Costo por Minuto Adicional a Números de Otras Compañías</t>
+  </si>
+  <si>
+    <t>Costo por Segundo Adicional a Números de la Misma Compañía</t>
+  </si>
+  <si>
+    <t>Costo por Segundo Adicional a Números de Otras Compañías</t>
+  </si>
+  <si>
+    <t>Minutos Incluidos a Cualquier Compañía Locales</t>
+  </si>
+  <si>
+    <t>Minutos Incluidos a Cualquier Compañía Todo Destino</t>
+  </si>
+  <si>
+    <t>Segundos Incluidos a Cualquier Compañía Locales</t>
+  </si>
+  <si>
+    <t>Segundos Incluidos a Cualquier Compañía Todo Destino</t>
+  </si>
+  <si>
+    <t>Costo por Minuto Adicional Cualquier Número Nacional</t>
+  </si>
+  <si>
+    <t>Costo por Minuto Adicional Cualquier Número Local</t>
+  </si>
+  <si>
+    <t>Costo por Segundo Adicional Cualquier Número Nacional</t>
+  </si>
+  <si>
+    <t>Costo por Segundo Adicional Cualquier Número Local</t>
+  </si>
+  <si>
+    <t>Bolsa de saldo/crédito/dinero Para Llamar a Cualquier Compañía Local</t>
+  </si>
+  <si>
+    <t>Bolsa de saldo/crédito/dinero Para Llamar a Cualquier Compañía Todo Destino</t>
+  </si>
+  <si>
+    <t>Bolsa de saldo/crédito/dinero Para Llamar a la Misma Compañía Todo Destino</t>
+  </si>
+  <si>
+    <t>Costo por Minuto de Larga Distancia Nacional</t>
+  </si>
+  <si>
+    <t>Costo por minuto de LD Internacional (EU y Canadá)</t>
   </si>
 </sst>
 </file>
@@ -793,7 +606,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;MX$&quot;* #,##0.00_);_(&quot;MX$&quot;* \(#,##0.00\);_(&quot;MX$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -906,14 +719,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -938,12 +745,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -954,7 +755,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2222">
+  <cellStyleXfs count="2438">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2941,6 +2742,222 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3210,7 +3227,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3249,14 +3265,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1985" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2222">
+  <cellStyles count="2438">
     <cellStyle name="Hipervínculo" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="6" builtinId="8" hidden="1"/>
@@ -4366,6 +4379,114 @@
     <cellStyle name="Hipervínculo" xfId="2216" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="2218" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo" xfId="2220" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2222" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2224" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2226" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2228" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2230" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2232" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2234" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2236" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2238" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2240" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2242" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2244" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2246" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2248" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2250" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2252" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2254" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2256" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2258" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2260" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2262" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2264" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2266" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2268" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2270" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2272" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2274" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2276" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2278" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2280" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2282" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2284" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2286" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2288" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2290" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2292" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2294" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2296" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2298" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2300" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2302" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2304" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2306" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2308" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2310" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2312" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2314" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2316" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2318" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2320" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2322" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2324" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2326" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2328" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2330" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2332" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2334" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2336" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2338" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2340" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2342" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2344" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2346" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2348" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2350" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2352" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2354" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2356" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2358" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2360" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2362" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2364" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2366" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2368" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2370" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2372" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2374" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2376" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2378" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2380" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2382" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2384" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2386" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2388" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2390" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2392" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2394" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2396" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2398" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2400" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2402" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2404" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2406" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2408" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2410" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2412" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2414" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2416" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2418" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2420" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2422" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2424" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2426" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2428" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2430" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2432" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2434" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="2436" builtinId="8" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9" hidden="1"/>
@@ -5475,6 +5596,114 @@
     <cellStyle name="Hipervínculo visitado" xfId="2217" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2219" builtinId="9" hidden="1"/>
     <cellStyle name="Hipervínculo visitado" xfId="2221" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2223" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2225" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2227" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2229" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2231" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2233" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2235" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2237" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2239" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2241" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2243" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2245" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2247" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2249" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2251" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2253" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2255" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2257" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2259" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2261" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2263" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2265" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2267" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2269" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2271" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2273" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2275" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2277" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2279" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2281" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2283" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2285" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2287" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2289" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2291" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2293" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2295" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2297" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2299" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2301" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2303" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2305" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2307" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2309" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2311" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2313" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2315" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2317" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2319" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2321" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2323" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2325" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2327" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2329" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2331" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2333" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2335" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2337" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2339" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2341" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2343" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2345" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2347" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2349" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2351" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2353" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2355" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2357" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2359" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2361" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2363" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2365" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2367" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2369" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2371" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2373" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2375" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2377" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2379" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2381" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2383" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2385" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2387" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2389" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2391" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2393" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2395" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2397" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2399" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2401" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2403" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2405" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2407" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2409" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2411" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2413" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2415" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2417" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2419" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2421" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2423" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2425" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2427" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2429" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2431" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2433" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2435" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2437" builtinId="9" hidden="1"/>
     <cellStyle name="Moneda" xfId="1808" builtinId="4"/>
     <cellStyle name="Moneda 2" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5924,2226 +6153,2332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T43"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12:XFD12"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="59.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" style="7" customWidth="1"/>
+    <col min="8" max="10" width="10.83203125" style="9"/>
+    <col min="14" max="14" width="10.83203125" style="9"/>
+    <col min="17" max="17" width="11.1640625" style="9" customWidth="1"/>
+    <col min="18" max="19" width="10.83203125" style="9"/>
+    <col min="21" max="21" width="11.1640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+        <v>95</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
       <c r="P2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="Q2" s="13"/>
+      <c r="U2" s="13"/>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="K3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="M3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="O3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="S3" s="17" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="T3" s="17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="70">
+        <v>85</v>
+      </c>
+      <c r="U3" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="42">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="25" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="H4" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="J4" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="L4" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="M4" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="I4" s="24" t="s">
-        <v>125</v>
-      </c>
-      <c r="J4" s="24" t="s">
-        <v>126</v>
-      </c>
-      <c r="K4" s="25" t="s">
-        <v>127</v>
-      </c>
-      <c r="L4" s="25" t="s">
-        <v>128</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>155</v>
-      </c>
-      <c r="N4" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="O4" s="24" t="s">
-        <v>152</v>
+      <c r="N4" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="O4" s="23" t="s">
+        <v>138</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="Q4" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="R4" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="S4" s="25" t="s">
-        <v>157</v>
-      </c>
-      <c r="T4" s="25" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>143</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="T4" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="22">
+        <v>23</v>
+      </c>
+      <c r="C5" s="21">
+        <v>499</v>
+      </c>
+      <c r="D5" s="21">
+        <v>579</v>
+      </c>
+      <c r="E5" s="28">
+        <v>779</v>
+      </c>
+      <c r="F5" s="28">
+        <v>979</v>
+      </c>
+      <c r="G5" s="21">
+        <v>499</v>
+      </c>
+      <c r="H5" s="21">
+        <v>549</v>
+      </c>
+      <c r="I5" s="28">
+        <v>749</v>
+      </c>
+      <c r="J5" s="28">
+        <v>949</v>
+      </c>
+      <c r="K5" s="28">
+        <v>2099</v>
+      </c>
+      <c r="L5" s="28">
+        <v>579</v>
+      </c>
+      <c r="M5" s="28">
+        <v>979</v>
+      </c>
+      <c r="N5" s="28">
+        <v>549</v>
+      </c>
+      <c r="O5" s="28">
+        <v>949</v>
+      </c>
+      <c r="P5" s="28">
+        <v>699</v>
+      </c>
+      <c r="Q5" s="21">
         <v>449</v>
       </c>
-      <c r="D5" s="22">
-        <v>499</v>
-      </c>
-      <c r="E5" s="22">
-        <v>579</v>
-      </c>
-      <c r="F5" s="29">
-        <v>579</v>
-      </c>
-      <c r="G5" s="29">
-        <v>979</v>
-      </c>
-      <c r="H5" s="29">
-        <v>499</v>
-      </c>
-      <c r="I5" s="29">
-        <v>549</v>
-      </c>
-      <c r="J5" s="29">
+      <c r="R5" s="28">
+        <v>699</v>
+      </c>
+      <c r="S5" s="28">
         <v>649</v>
       </c>
-      <c r="K5" s="29">
-        <v>549</v>
-      </c>
-      <c r="L5" s="29">
+      <c r="T5" s="28">
         <v>949</v>
       </c>
-      <c r="M5" s="29">
-        <v>699</v>
-      </c>
-      <c r="N5" s="29">
-        <v>749</v>
-      </c>
-      <c r="O5" s="29">
-        <v>949</v>
-      </c>
-      <c r="P5" s="29">
-        <v>2099</v>
-      </c>
-      <c r="Q5" s="29">
-        <v>949</v>
-      </c>
-      <c r="R5" s="29">
-        <v>699</v>
-      </c>
-      <c r="S5" s="29">
-        <v>779</v>
-      </c>
-      <c r="T5" s="29">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" s="9" customFormat="1">
-      <c r="A6" s="20" t="s">
-        <v>107</v>
+      <c r="U5" s="21">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="9" customFormat="1">
+      <c r="A6" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="R6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="S6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>86</v>
+      </c>
+      <c r="U6" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="R7" s="18" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="S7" s="18" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="T7" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>153</v>
+      </c>
+      <c r="U7" s="18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="8" t="s">
-        <v>6</v>
+        <v>158</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="R8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="S8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="T8" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" s="9" customFormat="1">
-      <c r="A9" s="20" t="s">
-        <v>104</v>
+        <v>86</v>
+      </c>
+      <c r="U8" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" s="9" customFormat="1">
+      <c r="A9" s="8" t="s">
+        <v>159</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="23">
+        <v>24</v>
+      </c>
+      <c r="C9" s="22">
+        <v>150</v>
+      </c>
+      <c r="D9" s="22">
         <v>100</v>
       </c>
-      <c r="D9" s="23">
+      <c r="E9" s="7">
+        <v>400</v>
+      </c>
+      <c r="F9" s="7">
+        <v>800</v>
+      </c>
+      <c r="G9" s="22">
         <v>150</v>
       </c>
-      <c r="E9" s="23">
+      <c r="H9" s="22">
         <v>100</v>
       </c>
-      <c r="F9" s="7">
-        <v>150</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="I9" s="7">
+        <v>400</v>
+      </c>
+      <c r="J9" s="7">
         <v>800</v>
       </c>
-      <c r="H9" s="7">
-        <v>150</v>
-      </c>
-      <c r="I9" s="7">
+      <c r="K9" s="7">
+        <v>4000</v>
+      </c>
+      <c r="L9" s="7">
         <v>100</v>
       </c>
-      <c r="J9" s="7">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
+      <c r="M9" s="7">
+        <v>800</v>
+      </c>
+      <c r="N9" s="7">
         <v>100</v>
-      </c>
-      <c r="L9" s="7">
-        <v>800</v>
-      </c>
-      <c r="M9" s="7">
-        <v>250</v>
-      </c>
-      <c r="N9" s="7">
-        <v>400</v>
       </c>
       <c r="O9" s="7">
         <v>800</v>
       </c>
       <c r="P9" s="7">
-        <v>4000</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>102</v>
+        <v>250</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>100</v>
       </c>
       <c r="R9" s="7">
         <v>250</v>
       </c>
       <c r="S9" s="7">
-        <v>400</v>
-      </c>
-      <c r="T9" s="7">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="T9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="U9" s="22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="22">
+        <v>150</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="22">
+        <v>150</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K10" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R10" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="U10" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T11" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="U11" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="9" customFormat="1">
+      <c r="A12" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="S12" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T12" s="18">
+        <v>48000</v>
+      </c>
+      <c r="U12" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="23">
-        <v>150</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="7">
-        <v>150</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="7">
-        <v>150</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M10" s="7">
-        <v>250</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="R10" s="7">
-        <v>250</v>
-      </c>
-      <c r="S10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T10" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="20" t="s">
+      <c r="B13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T13" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="U13" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" s="9" customFormat="1">
+      <c r="A14" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="S14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T14" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="9" customFormat="1">
+      <c r="A15" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="19">
+        <v>525</v>
+      </c>
+      <c r="D15" s="19">
+        <v>275</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1000</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1600</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="19">
+        <v>275</v>
+      </c>
+      <c r="M15" s="28">
+        <v>1600</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P15" s="19">
+        <v>500</v>
+      </c>
+      <c r="Q15" s="27">
+        <v>350</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="S15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T15" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="U15" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="9" customFormat="1">
+      <c r="A16" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="S16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T16" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="U16" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S11" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T11" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="20" t="s">
+      <c r="B17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="18">
+        <v>0</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="18">
+        <v>0</v>
+      </c>
+      <c r="G17" s="18">
+        <v>0</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+      <c r="I17" s="18">
+        <v>0</v>
+      </c>
+      <c r="J17" s="18">
+        <v>0</v>
+      </c>
+      <c r="K17" s="18">
+        <v>0</v>
+      </c>
+      <c r="L17" s="18">
+        <v>0</v>
+      </c>
+      <c r="M17" s="18">
+        <v>0</v>
+      </c>
+      <c r="N17" s="18">
+        <v>0</v>
+      </c>
+      <c r="O17" s="18">
+        <v>0</v>
+      </c>
+      <c r="P17" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="18">
+        <v>0</v>
+      </c>
+      <c r="R17" s="18">
+        <v>0</v>
+      </c>
+      <c r="S17" s="18">
+        <v>0</v>
+      </c>
+      <c r="T17" s="18">
+        <v>0</v>
+      </c>
+      <c r="U17" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S12" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T12" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" s="9" customFormat="1">
-      <c r="A13" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q13" s="18">
-        <v>48000</v>
-      </c>
-      <c r="R13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S13" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T13" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="20" t="s">
+      <c r="B18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0</v>
+      </c>
+      <c r="F18" s="18">
+        <v>0</v>
+      </c>
+      <c r="G18" s="18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="18">
+        <v>0</v>
+      </c>
+      <c r="J18" s="18">
+        <v>0</v>
+      </c>
+      <c r="K18" s="18">
+        <v>0</v>
+      </c>
+      <c r="L18" s="18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="18">
+        <v>0</v>
+      </c>
+      <c r="N18" s="18">
+        <v>0</v>
+      </c>
+      <c r="O18" s="18">
+        <v>0</v>
+      </c>
+      <c r="P18" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="18">
+        <v>0</v>
+      </c>
+      <c r="S18" s="18">
+        <v>0</v>
+      </c>
+      <c r="T18" s="18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S14" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T14" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="20" t="s">
+      <c r="B19" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="18">
+        <v>5</v>
+      </c>
+      <c r="D19" s="18">
+        <v>10</v>
+      </c>
+      <c r="E19" s="7">
+        <v>20</v>
+      </c>
+      <c r="F19" s="7">
+        <v>50</v>
+      </c>
+      <c r="G19" s="18">
+        <v>5</v>
+      </c>
+      <c r="H19" s="18">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7">
+        <v>20</v>
+      </c>
+      <c r="J19" s="7">
+        <v>50</v>
+      </c>
+      <c r="K19" s="7">
+        <v>300</v>
+      </c>
+      <c r="L19" s="7">
+        <v>10</v>
+      </c>
+      <c r="M19" s="7">
+        <v>50</v>
+      </c>
+      <c r="N19" s="7">
+        <v>10</v>
+      </c>
+      <c r="O19" s="7">
+        <v>50</v>
+      </c>
+      <c r="P19" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="18">
+        <v>0</v>
+      </c>
+      <c r="R19" s="7">
+        <v>20</v>
+      </c>
+      <c r="S19" s="7">
+        <v>10</v>
+      </c>
+      <c r="T19" s="7">
+        <v>50</v>
+      </c>
+      <c r="U19" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="28">
-        <v>350</v>
-      </c>
-      <c r="D15" s="19">
-        <v>525</v>
-      </c>
-      <c r="E15" s="19">
-        <v>275</v>
-      </c>
-      <c r="F15" s="29">
-        <v>275</v>
-      </c>
-      <c r="G15" s="29">
-        <v>1600</v>
-      </c>
-      <c r="H15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S15" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T15" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" s="9" customFormat="1">
-      <c r="A16" s="21" t="s">
+      <c r="B20" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="G20" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="R20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="S20" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="T20" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="U20" s="22" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S16" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T16" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" s="9" customFormat="1">
-      <c r="A17" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S17" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T17" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" s="9" customFormat="1">
-      <c r="A18" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S18" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T18" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" s="9" customFormat="1">
-      <c r="A19" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S19" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T19" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S20" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T20" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="8" t="s">
+      <c r="D21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P21" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="R21" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="S21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="T21" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="U21" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="D22" s="19">
+        <v>2.75</v>
+      </c>
+      <c r="E22" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="F22" s="19">
+        <v>2</v>
+      </c>
+      <c r="G22" s="19">
+        <v>2.85</v>
+      </c>
+      <c r="H22" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="I22" s="19">
+        <v>2.25</v>
+      </c>
+      <c r="J22" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="K22" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="L22" s="28">
+        <v>2.75</v>
+      </c>
+      <c r="M22" s="28">
+        <v>2</v>
+      </c>
+      <c r="N22" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="O22" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="P22" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="19">
+        <v>3.5</v>
+      </c>
+      <c r="R22" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="S22" s="19">
+        <v>5</v>
+      </c>
+      <c r="T22" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="U22" s="19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="S23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T23" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="U23" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="S24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T24" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="U24" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="S25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="T25" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="U25" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S21" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T21" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="18">
-        <v>5</v>
-      </c>
-      <c r="E22" s="18">
-        <v>10</v>
-      </c>
-      <c r="F22" s="7">
-        <v>10</v>
-      </c>
-      <c r="G22" s="7">
-        <v>50</v>
-      </c>
-      <c r="H22" s="7">
-        <v>5</v>
-      </c>
-      <c r="I22" s="7">
-        <v>10</v>
-      </c>
-      <c r="J22" s="7">
-        <v>10</v>
-      </c>
-      <c r="K22" s="7">
-        <v>10</v>
-      </c>
-      <c r="L22" s="7">
-        <v>50</v>
-      </c>
-      <c r="M22" s="7">
-        <v>20</v>
-      </c>
-      <c r="N22" s="7">
-        <v>20</v>
-      </c>
-      <c r="O22" s="7">
-        <v>50</v>
-      </c>
-      <c r="P22" s="7">
-        <v>200</v>
-      </c>
-      <c r="Q22" s="7">
-        <v>50</v>
-      </c>
-      <c r="R22" s="7">
-        <v>20</v>
-      </c>
-      <c r="S22" s="7">
-        <v>20</v>
-      </c>
-      <c r="T22" s="7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>117</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="M23" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="N23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="O23" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="P23" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q23" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="R23" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="T23" s="18" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="G24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="N24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="R24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="S24" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="T24" s="18" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="19">
-        <v>3.5</v>
-      </c>
-      <c r="D25" s="19">
-        <v>3.5</v>
-      </c>
-      <c r="E25" s="19">
-        <v>2.75</v>
-      </c>
-      <c r="F25" s="19">
-        <v>2.75</v>
-      </c>
-      <c r="G25" s="29">
-        <v>2</v>
-      </c>
-      <c r="H25" s="29">
-        <v>2.85</v>
-      </c>
-      <c r="I25" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="J25" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="K25" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="L25" s="29">
-        <v>1.8</v>
-      </c>
-      <c r="M25" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="R25" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S25" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T25" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="8" t="s">
-        <v>18</v>
-      </c>
       <c r="B26" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="19">
-        <v>3.5</v>
-      </c>
-      <c r="D26" s="19">
-        <v>3.5</v>
-      </c>
-      <c r="E26" s="19">
-        <v>2.75</v>
-      </c>
-      <c r="F26" s="19">
-        <v>2.75</v>
-      </c>
-      <c r="G26" s="29">
-        <v>2</v>
-      </c>
-      <c r="H26" s="29">
-        <v>2.85</v>
-      </c>
-      <c r="I26" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="J26" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="K26" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="L26" s="29">
-        <v>1.8</v>
+        <v>23</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K26" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="R26" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="S26" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="T26" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>35</v>
+        <v>86</v>
+      </c>
+      <c r="U26" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" s="9" customFormat="1">
+      <c r="A27" s="43" t="s">
+        <v>169</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>23</v>
       </c>
       <c r="C27" s="19">
         <v>3.5</v>
       </c>
       <c r="D27" s="19">
+        <v>2.75</v>
+      </c>
+      <c r="E27" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="F27" s="19">
+        <v>2</v>
+      </c>
+      <c r="G27" s="19">
+        <v>2.85</v>
+      </c>
+      <c r="H27" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="I27" s="19">
+        <v>2.25</v>
+      </c>
+      <c r="J27" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="K27" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="L27" s="28">
+        <v>2.75</v>
+      </c>
+      <c r="M27" s="28">
+        <v>2</v>
+      </c>
+      <c r="N27" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="O27" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="P27" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q27" s="19">
         <v>3.5</v>
       </c>
-      <c r="E27" s="19">
-        <v>2.75</v>
-      </c>
-      <c r="F27" s="19">
-        <v>2.75</v>
-      </c>
-      <c r="G27" s="29">
-        <v>2</v>
-      </c>
-      <c r="H27" s="29">
-        <v>2.85</v>
-      </c>
-      <c r="I27" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="J27" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="K27" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="L27" s="29">
+      <c r="R27" s="19">
         <v>1.8</v>
       </c>
-      <c r="M27" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N27" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O27" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P27" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q27" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R27" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S27" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T27" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>35</v>
+      <c r="S27" s="19">
+        <v>5</v>
+      </c>
+      <c r="T27" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="U27" s="19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" s="9" customFormat="1">
+      <c r="A28" s="43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>23</v>
       </c>
       <c r="C28" s="19">
         <v>3.5</v>
       </c>
       <c r="D28" s="19">
+        <v>2.75</v>
+      </c>
+      <c r="E28" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="F28" s="19">
+        <v>2</v>
+      </c>
+      <c r="G28" s="19">
+        <v>2.85</v>
+      </c>
+      <c r="H28" s="19">
+        <v>2.5</v>
+      </c>
+      <c r="I28" s="19">
+        <v>2.25</v>
+      </c>
+      <c r="J28" s="19">
+        <v>1.8</v>
+      </c>
+      <c r="K28" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="L28" s="28">
+        <v>2.75</v>
+      </c>
+      <c r="M28" s="28">
+        <v>2</v>
+      </c>
+      <c r="N28" s="28">
+        <v>2.5</v>
+      </c>
+      <c r="O28" s="28">
+        <v>1.8</v>
+      </c>
+      <c r="P28" s="19">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="19">
         <v>3.5</v>
       </c>
-      <c r="E28" s="19">
-        <v>2.75</v>
-      </c>
-      <c r="F28" s="19">
-        <v>2.75</v>
-      </c>
-      <c r="G28" s="29">
-        <v>2</v>
-      </c>
-      <c r="H28" s="29">
-        <v>2.85</v>
-      </c>
-      <c r="I28" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="J28" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="K28" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="L28" s="29">
+      <c r="R28" s="19">
         <v>1.8</v>
       </c>
-      <c r="M28" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N28" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O28" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P28" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q28" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R28" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S28" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T28" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+      <c r="S28" s="19">
+        <v>5</v>
+      </c>
+      <c r="T28" s="28">
+        <v>0.05</v>
+      </c>
+      <c r="U28" s="19">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" s="8" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="19">
-        <v>3.5</v>
-      </c>
-      <c r="D29" s="19">
-        <v>3.5</v>
-      </c>
-      <c r="E29" s="19">
-        <v>2.75</v>
-      </c>
-      <c r="F29" s="19">
-        <v>2.75</v>
-      </c>
-      <c r="G29" s="29">
-        <v>2</v>
-      </c>
-      <c r="H29" s="29">
-        <v>2.85</v>
-      </c>
-      <c r="I29" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="J29" s="29">
-        <v>1.5</v>
-      </c>
-      <c r="K29" s="29">
-        <v>2.5</v>
-      </c>
-      <c r="L29" s="29">
-        <v>1.8</v>
+        <v>23</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L29" s="18" t="s">
+        <v>86</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="R29" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="S29" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="T29" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>86</v>
+      </c>
+      <c r="U29" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" s="8" t="s">
-        <v>22</v>
+        <v>165</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="P30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="R30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="S30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="T30" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>86</v>
+      </c>
+      <c r="U30" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="C31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="P31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="R31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="S31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="T31" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>86</v>
+      </c>
+      <c r="U31" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="8" t="s">
-        <v>24</v>
+        <v>157</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="R32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="S32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="T32" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>86</v>
+      </c>
+      <c r="U32" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" s="8" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="R33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="S33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="T33" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+        <v>86</v>
+      </c>
+      <c r="U33" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="8" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="R34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="S34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="T34" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>86</v>
+      </c>
+      <c r="U34" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="8" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="Q35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="R35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="S35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="T35" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>86</v>
+      </c>
+      <c r="U35" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="9" customFormat="1">
       <c r="A36" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="M36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S36" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T36" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="1:20" s="9" customFormat="1">
+        <v>63</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="D36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="E36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="F36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="G36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="H36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="I36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="J36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="K36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="L36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="M36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="N36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="O36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="P36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="Q36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="R36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="S36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="T36" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="U36" s="19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>102</v>
+        <v>17</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="D37" s="19">
+        <v>0.95</v>
       </c>
       <c r="E37" s="19">
         <v>0.95</v>
@@ -8169,340 +8504,294 @@
       <c r="L37" s="19">
         <v>0.95</v>
       </c>
-      <c r="M37" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N37" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O37" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P37" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q37" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R37" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S37" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T37" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:20">
-      <c r="A38" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="19">
+      <c r="M37" s="19">
         <v>0.95</v>
       </c>
-      <c r="F38" s="19">
+      <c r="N37" s="19">
         <v>0.95</v>
       </c>
-      <c r="G38" s="19">
+      <c r="O37" s="19">
         <v>0.95</v>
       </c>
-      <c r="H38" s="19">
+      <c r="P37" s="19">
         <v>0.95</v>
       </c>
-      <c r="I38" s="19">
+      <c r="Q37" s="19">
         <v>0.95</v>
       </c>
-      <c r="J38" s="19">
+      <c r="R37" s="19">
         <v>0.95</v>
       </c>
-      <c r="K38" s="19">
+      <c r="S37" s="19">
         <v>0.95</v>
       </c>
-      <c r="L38" s="19">
+      <c r="T37" s="19">
         <v>0.95</v>
       </c>
-      <c r="M38" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N38" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="O38" s="18" t="s">
-        <v>102</v>
+      <c r="U37" s="19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" s="9" customFormat="1" ht="140">
+      <c r="A38" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D38" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I38" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="L38" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="M38" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="N38" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="O38" s="26" t="s">
+        <v>96</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="Q38" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="R38" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="S38" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="T38" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" s="9" customFormat="1" ht="42">
-      <c r="A39" s="14" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="T38" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="U38" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" s="9" customFormat="1" ht="409">
+      <c r="A39" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="H39" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I39" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="J39" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="K39" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="E39" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="F39" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="G39" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="H39" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="I39" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="K39" s="27" t="s">
-        <v>116</v>
-      </c>
-      <c r="L39" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="M39" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N39" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="O39" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="P39" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q39" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="R39" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S39" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="T39" s="26" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:20" s="9" customFormat="1" ht="409">
+      <c r="L39" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="M39" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="N39" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="O39" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="P39" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q39" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="R39" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="S39" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="T39" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="U39" s="25" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="G40" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="H40" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="I40" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="J40" s="26" t="s">
-        <v>118</v>
-      </c>
-      <c r="K40" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="L40" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="M40" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="N40" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="O40" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="P40" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q40" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="R40" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="S40" s="40" t="s">
-        <v>146</v>
-      </c>
-      <c r="T40" s="40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="41" spans="1:20">
+        <v>18</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="J40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="K40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="M40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="N40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="O40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="P40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="R40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="S40" s="18"/>
+      <c r="T40" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="U40" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" ht="210">
       <c r="A41" s="8" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>102</v>
+        <v>27</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>134</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="H41" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I41" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="J41" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="K41" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
+      </c>
+      <c r="H41" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="J41" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="K41" s="25" t="s">
+        <v>135</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="O41" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="P41" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
+      </c>
+      <c r="P41" s="25" t="s">
+        <v>142</v>
       </c>
       <c r="Q41" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R41" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="S41" s="18" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:20" ht="409">
-      <c r="A42" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E42" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="G42" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="I42" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="J42" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="K42" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="L42" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="M42" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="N42" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="O42" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="P42" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q42" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="R42" s="43" t="s">
-        <v>160</v>
-      </c>
-      <c r="S42" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="T42" s="42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="1:20">
-      <c r="M43" s="18"/>
+        <v>86</v>
+      </c>
+      <c r="R41" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="S41" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="T41" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="U41" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="P42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8539,10 +8828,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E1" s="9"/>
     </row>
@@ -8552,7 +8841,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="D2" s="13"/>
       <c r="E2" s="9"/>
@@ -8563,643 +8852,643 @@
         <v>2</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="10"/>
       <c r="B4" s="11" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>102</v>
+        <v>22</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>86</v>
       </c>
       <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="10"/>
       <c r="B5" s="11" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="10"/>
       <c r="B6" s="12" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E6" s="9"/>
     </row>
     <row r="7" spans="1:5" s="9" customFormat="1">
       <c r="A7" s="10"/>
       <c r="B7" s="12" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="10"/>
       <c r="B8" s="12" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="10"/>
       <c r="B9" s="12" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="10"/>
       <c r="B10" s="12" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="10"/>
       <c r="B11" s="12" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="10"/>
       <c r="B12" s="12" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="10"/>
       <c r="B13" s="12" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="10"/>
       <c r="B14" s="12" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="10"/>
       <c r="B15" s="12" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E15" s="9"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="10"/>
       <c r="B16" s="11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E16" s="9"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="10"/>
       <c r="B17" s="12" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E17" s="9"/>
     </row>
     <row r="18" spans="1:5" s="9" customFormat="1">
       <c r="A18" s="10"/>
       <c r="B18" s="12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="10"/>
       <c r="B19" s="12" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="10"/>
       <c r="B20" s="12" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="10"/>
       <c r="B21" s="12" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="10"/>
       <c r="B22" s="12" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="10"/>
       <c r="B23" s="12" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="10"/>
       <c r="B24" s="12" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="10"/>
       <c r="B25" s="12" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="10"/>
       <c r="B26" s="12" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="10"/>
       <c r="B27" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="10"/>
       <c r="B28" s="12" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="9" customFormat="1">
       <c r="A29" s="10"/>
       <c r="B29" s="12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="10"/>
       <c r="B30" s="12" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="10"/>
       <c r="B31" s="12" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="10"/>
       <c r="B32" s="12" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="9" customFormat="1">
       <c r="A33" s="10"/>
       <c r="B33" s="12" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="9" customFormat="1">
       <c r="A34" s="10"/>
       <c r="B34" s="12" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="10"/>
       <c r="B35" s="12" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="10"/>
       <c r="B36" s="12" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="10"/>
       <c r="B37" s="12" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="10"/>
       <c r="B38" s="11" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E38" s="9"/>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="10"/>
       <c r="B39" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E39" s="9"/>
     </row>
     <row r="40" spans="1:5" s="9" customFormat="1">
       <c r="A40" s="10"/>
       <c r="B40" s="12" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="10"/>
       <c r="B41" s="12" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="10"/>
       <c r="B42" s="12" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E42" s="9"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="10"/>
       <c r="B43" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E43" s="9"/>
     </row>
     <row r="44" spans="1:5" s="9" customFormat="1">
       <c r="A44" s="10"/>
       <c r="B44" s="12" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="9" customFormat="1">
       <c r="A45" s="10"/>
       <c r="B45" s="12" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="10"/>
       <c r="B46" s="12" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E46" s="9"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="10"/>
       <c r="B47" s="12" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E47" s="9"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="10"/>
       <c r="B48" s="12" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E48" s="9"/>
     </row>
     <row r="49" spans="1:5" s="9" customFormat="1">
       <c r="A49" s="10"/>
       <c r="B49" s="15" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:5" s="9" customFormat="1">
       <c r="A50" s="10"/>
       <c r="B50" s="16" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="10"/>
       <c r="B51" s="11" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="10"/>
       <c r="B52" s="11" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="B53" s="11" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C53" s="11" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E53" s="7"/>
     </row>
@@ -9225,59 +9514,59 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32" style="32" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="32" customWidth="1"/>
-    <col min="3" max="12" width="10.83203125" style="32"/>
-    <col min="13" max="13" width="11.5" style="32" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="32" style="31" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" style="31" customWidth="1"/>
+    <col min="3" max="12" width="10.83203125" style="31"/>
+    <col min="13" max="13" width="11.5" style="31" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="D1" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="E1" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="I1" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="M1" s="32" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="32" t="s">
-        <v>119</v>
+      <c r="B1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="31" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9286,447 +9575,447 @@
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="D3" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="I3" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="J3" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="L3" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="N3" s="41" t="s">
-        <v>106</v>
+        <v>21</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="K3" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="L3" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="40" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C6" s="36">
+      <c r="A6" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" s="35">
         <v>10</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>20</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="35">
         <v>30</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="35">
         <v>50</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="35">
         <v>60</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="35">
         <v>100</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="35">
         <v>120</v>
       </c>
-      <c r="J6" s="36">
+      <c r="J6" s="35">
         <v>150</v>
       </c>
-      <c r="K6" s="36">
+      <c r="K6" s="35">
         <v>200</v>
       </c>
-      <c r="L6" s="36">
+      <c r="L6" s="35">
         <v>300</v>
       </c>
-      <c r="M6" s="36">
+      <c r="M6" s="35">
         <v>500</v>
       </c>
-      <c r="N6" s="36">
+      <c r="N6" s="35">
         <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E7" s="37">
+      <c r="A7" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="36">
         <v>30</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="36">
         <v>50</v>
       </c>
-      <c r="G7" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H7" s="37">
+      <c r="G7" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" s="36">
         <v>100</v>
       </c>
-      <c r="I7" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" s="37">
+      <c r="I7" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="36">
         <v>150</v>
       </c>
-      <c r="K7" s="37">
+      <c r="K7" s="36">
         <v>200</v>
       </c>
-      <c r="L7" s="37">
+      <c r="L7" s="36">
         <v>300</v>
       </c>
-      <c r="M7" s="37">
+      <c r="M7" s="36">
         <v>500</v>
       </c>
-      <c r="N7" s="37">
+      <c r="N7" s="36">
         <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="36">
+        <v>30</v>
+      </c>
+      <c r="F8" s="36">
+        <v>50</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" s="36">
+        <v>100</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="36">
         <v>150</v>
       </c>
-      <c r="B8" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="37">
-        <v>30</v>
-      </c>
-      <c r="F8" s="37">
-        <v>50</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H8" s="37">
-        <v>100</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="37">
-        <v>150</v>
-      </c>
-      <c r="K8" s="37">
+      <c r="K8" s="36">
         <v>200</v>
       </c>
-      <c r="L8" s="37">
+      <c r="L8" s="36">
         <v>300</v>
       </c>
-      <c r="M8" s="37">
+      <c r="M8" s="36">
         <v>500</v>
       </c>
-      <c r="N8" s="37">
+      <c r="N8" s="36">
         <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" s="37">
+      <c r="A9" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="36">
         <v>0</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="36">
         <v>0</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <f t="shared" ref="E9:N9" si="0">+E8-E7</f>
         <v>0</v>
       </c>
-      <c r="F9" s="37">
+      <c r="F9" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="37">
+      <c r="G9" s="36">
         <v>0</v>
       </c>
-      <c r="H9" s="37">
+      <c r="H9" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="36">
         <v>0</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K9" s="37">
+      <c r="K9" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L9" s="37">
+      <c r="L9" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M9" s="37">
+      <c r="M9" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N9" s="37">
+      <c r="N9" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14">
-      <c r="A10" s="34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="37" t="s">
+      <c r="A10" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="L10" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="M10" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="N10" s="37" t="s">
-        <v>135</v>
+      <c r="B10" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:14">
-      <c r="A11" s="34" t="s">
-        <v>136</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>134</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E11" s="37" t="s">
+      <c r="A11" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="K11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="M11" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="N11" s="31" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="L12" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="M12" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="N12" s="38" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="J13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="L13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="M13" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J11" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="L11" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="N11" s="32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="34" t="s">
-        <v>137</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="F12" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H12" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J12" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="K12" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="L12" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="M12" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="N12" s="39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="M13" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="N13" s="37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="N14" s="37" t="s">
-        <v>102</v>
+      <c r="C14" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="36" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
